--- a/3_formula.xlsx
+++ b/3_formula.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+  <si>
+    <t>You should see threelogos below</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,6 +67,36 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1152525" cy="600075"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,13 +388,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col hidden="1" max="8" min="7" outlineLevel="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="n">
@@ -373,7 +411,35 @@
         <v/>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A6:G6"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>